--- a/Tactic.xlsx
+++ b/Tactic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Formation</t>
   </si>
@@ -40,106 +40,85 @@
     <t>4.4.2 losange</t>
   </si>
   <si>
-    <t>MDF</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>MLG</t>
-  </si>
-  <si>
-    <t>MLD</t>
-  </si>
-  <si>
-    <t>DCG</t>
-  </si>
-  <si>
-    <t>DCD</t>
-  </si>
-  <si>
-    <t>35.93,5</t>
-  </si>
-  <si>
-    <t>65.85</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>35.33</t>
-  </si>
-  <si>
-    <t>35.55</t>
-  </si>
-  <si>
-    <t>10.18</t>
-  </si>
-  <si>
-    <t>60.18</t>
-  </si>
-  <si>
-    <t>22.18</t>
-  </si>
-  <si>
-    <t>48.18</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>30.57</t>
-  </si>
-  <si>
-    <t>38.57</t>
-  </si>
-  <si>
-    <t>35.84</t>
-  </si>
-  <si>
-    <t>10.57</t>
-  </si>
-  <si>
-    <t>60.57</t>
-  </si>
-  <si>
-    <t>10.60</t>
-  </si>
-  <si>
-    <t>60.60</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>60.25</t>
-  </si>
-  <si>
-    <t>30.55</t>
-  </si>
-  <si>
-    <t>40.55</t>
+    <t>AT X</t>
+  </si>
+  <si>
+    <t>AG Y</t>
+  </si>
+  <si>
+    <t>AD X</t>
+  </si>
+  <si>
+    <t>AD Y</t>
+  </si>
+  <si>
+    <t>MDF X</t>
+  </si>
+  <si>
+    <t>MDF Y</t>
+  </si>
+  <si>
+    <t>MC X</t>
+  </si>
+  <si>
+    <t>MC Y</t>
+  </si>
+  <si>
+    <t>MO X</t>
+  </si>
+  <si>
+    <t>MO Y</t>
+  </si>
+  <si>
+    <t>LG X</t>
+  </si>
+  <si>
+    <t>LG Y</t>
+  </si>
+  <si>
+    <t>LD X</t>
+  </si>
+  <si>
+    <t>LD Y</t>
+  </si>
+  <si>
+    <t>DCG X</t>
+  </si>
+  <si>
+    <t>DCG Y</t>
+  </si>
+  <si>
+    <t>DCD X</t>
+  </si>
+  <si>
+    <t>DCD Y</t>
+  </si>
+  <si>
+    <t>GB X</t>
+  </si>
+  <si>
+    <t>GB Y</t>
+  </si>
+  <si>
+    <t>MLG X</t>
+  </si>
+  <si>
+    <t>MLG Y</t>
+  </si>
+  <si>
+    <t>MLD X</t>
+  </si>
+  <si>
+    <t>MLD Y</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>ATY</t>
+  </si>
+  <si>
+    <t>AGX</t>
   </si>
 </sst>
 </file>
@@ -485,67 +464,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
       <c r="M1" t="s">
         <v>17</v>
@@ -553,235 +542,469 @@
       <c r="N1" t="s">
         <v>18</v>
       </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>55</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>35</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
+      <c r="Y2">
+        <v>57</v>
+      </c>
+      <c r="Z2">
+        <v>38</v>
+      </c>
+      <c r="AA2">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>48</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>35</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>84</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>48</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>35</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>48</v>
+      </c>
+      <c r="U5">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>35</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>57</v>
+      </c>
+      <c r="Z5">
+        <v>60</v>
+      </c>
+      <c r="AA5">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>55</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <v>18</v>
+      </c>
+      <c r="V6">
+        <v>35</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>60</v>
+      </c>
+      <c r="Z6">
+        <v>60</v>
+      </c>
+      <c r="AA6">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <v>18</v>
+      </c>
+      <c r="T7">
+        <v>48</v>
+      </c>
+      <c r="U7">
+        <v>18</v>
+      </c>
+      <c r="V7">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>60</v>
+      </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
+      <c r="AA7">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>48</v>
+      </c>
+      <c r="U8">
+        <v>18</v>
+      </c>
+      <c r="V8">
+        <v>35</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Y8">
+        <v>55</v>
+      </c>
+      <c r="Z8">
         <v>40</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
+      <c r="AA8">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Tactic.xlsx
+++ b/Tactic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Formation</t>
   </si>
@@ -40,85 +40,181 @@
     <t>4.4.2 losange</t>
   </si>
   <si>
-    <t>AT X</t>
-  </si>
-  <si>
-    <t>AG Y</t>
-  </si>
-  <si>
-    <t>AD X</t>
-  </si>
-  <si>
-    <t>AD Y</t>
-  </si>
-  <si>
-    <t>MDF X</t>
-  </si>
-  <si>
-    <t>MDF Y</t>
-  </si>
-  <si>
-    <t>MC X</t>
-  </si>
-  <si>
-    <t>MC Y</t>
-  </si>
-  <si>
-    <t>MO X</t>
-  </si>
-  <si>
-    <t>MO Y</t>
-  </si>
-  <si>
-    <t>LG X</t>
-  </si>
-  <si>
-    <t>LG Y</t>
-  </si>
-  <si>
-    <t>LD X</t>
-  </si>
-  <si>
-    <t>LD Y</t>
-  </si>
-  <si>
-    <t>DCG X</t>
-  </si>
-  <si>
-    <t>DCG Y</t>
-  </si>
-  <si>
-    <t>DCD X</t>
-  </si>
-  <si>
-    <t>DCD Y</t>
-  </si>
-  <si>
-    <t>GB X</t>
-  </si>
-  <si>
-    <t>GB Y</t>
-  </si>
-  <si>
-    <t>MLG X</t>
-  </si>
-  <si>
-    <t>MLG Y</t>
-  </si>
-  <si>
-    <t>MLD X</t>
-  </si>
-  <si>
-    <t>MLD Y</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>ATY</t>
-  </si>
-  <si>
-    <t>AGX</t>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>MCY</t>
+  </si>
+  <si>
+    <t>DCX</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>800.300</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>850.200</t>
+  </si>
+  <si>
+    <t>ATD</t>
+  </si>
+  <si>
+    <t>850.400</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>750.100</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>750.500</t>
+  </si>
+  <si>
+    <t>MDFG</t>
+  </si>
+  <si>
+    <t>500.200</t>
+  </si>
+  <si>
+    <t>350.225</t>
+  </si>
+  <si>
+    <t>MDFD</t>
+  </si>
+  <si>
+    <t>500.400</t>
+  </si>
+  <si>
+    <t>350.375</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>350.300</t>
+  </si>
+  <si>
+    <t>400.300</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>35.55</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>600.400</t>
+  </si>
+  <si>
+    <t>650.450</t>
+  </si>
+  <si>
+    <t>600.450</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>600.200</t>
+  </si>
+  <si>
+    <t>650.150</t>
+  </si>
+  <si>
+    <t>600.150</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>MOC</t>
+  </si>
+  <si>
+    <t>650.300</t>
+  </si>
+  <si>
+    <t>700.300</t>
+  </si>
+  <si>
+    <t>DLG</t>
+  </si>
+  <si>
+    <t>200.100</t>
+  </si>
+  <si>
+    <t>300.100</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>DLD</t>
+  </si>
+  <si>
+    <t>200.500</t>
+  </si>
+  <si>
+    <t>300.500</t>
+  </si>
+  <si>
+    <t>DCG</t>
+  </si>
+  <si>
+    <t>200.200</t>
+  </si>
+  <si>
+    <t>DCD</t>
+  </si>
+  <si>
+    <t>200.400</t>
+  </si>
+  <si>
+    <t>200.300</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>30.300</t>
+  </si>
+  <si>
+    <t>MLG</t>
+  </si>
+  <si>
+    <t>550.100</t>
+  </si>
+  <si>
+    <t>550.150</t>
+  </si>
+  <si>
+    <t>500.100</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>550.500</t>
+  </si>
+  <si>
+    <t>550.450</t>
+  </si>
+  <si>
+    <t>500.500</t>
+  </si>
+  <si>
+    <t>60.25</t>
   </si>
 </sst>
 </file>
@@ -464,547 +560,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" customWidth="1"/>
     <col min="22" max="22" width="6.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
       <c r="V1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35</v>
-      </c>
-      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="J2">
-        <v>35</v>
-      </c>
-      <c r="K2">
-        <v>55</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>18</v>
+      <c r="O2" t="s">
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>60</v>
-      </c>
-      <c r="Q2">
-        <v>18</v>
-      </c>
-      <c r="R2">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
       </c>
       <c r="U2">
-        <v>18</v>
-      </c>
-      <c r="V2">
-        <v>35</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2">
-        <v>38</v>
-      </c>
-      <c r="AA2">
-        <v>57</v>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>33</v>
-      </c>
-      <c r="J3">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>22</v>
-      </c>
-      <c r="S3">
-        <v>18</v>
-      </c>
-      <c r="T3">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
       </c>
       <c r="U3">
-        <v>18</v>
-      </c>
-      <c r="V3">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>65</v>
-      </c>
-      <c r="G4">
-        <v>85</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>33</v>
-      </c>
-      <c r="J4">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>84</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>18</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4">
-        <v>18</v>
-      </c>
-      <c r="R4">
-        <v>22</v>
-      </c>
-      <c r="S4">
-        <v>18</v>
-      </c>
-      <c r="T4">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
       </c>
       <c r="U4">
-        <v>18</v>
-      </c>
-      <c r="V4">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
         <v>55</v>
       </c>
-      <c r="R5">
-        <v>22</v>
-      </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
-        <v>48</v>
-      </c>
-      <c r="U5">
-        <v>18</v>
-      </c>
-      <c r="V5">
-        <v>35</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
+      <c r="V5" t="s">
         <v>57</v>
       </c>
-      <c r="Z5">
+      <c r="W5" t="s">
         <v>60</v>
       </c>
-      <c r="AA5">
-        <v>57</v>
+      <c r="X5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>33</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
         <v>55</v>
       </c>
-      <c r="R6">
-        <v>22</v>
-      </c>
-      <c r="S6">
-        <v>18</v>
-      </c>
-      <c r="T6">
-        <v>48</v>
-      </c>
-      <c r="U6">
-        <v>18</v>
-      </c>
-      <c r="V6">
-        <v>35</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>60</v>
-      </c>
-      <c r="Z6">
-        <v>60</v>
-      </c>
-      <c r="AA6">
-        <v>60</v>
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-      <c r="K7">
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
         <v>55</v>
       </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>25</v>
-      </c>
-      <c r="P7">
-        <v>60</v>
-      </c>
-      <c r="Q7">
-        <v>25</v>
-      </c>
-      <c r="R7">
-        <v>22</v>
-      </c>
-      <c r="S7">
-        <v>18</v>
-      </c>
-      <c r="T7">
-        <v>48</v>
-      </c>
-      <c r="U7">
-        <v>18</v>
-      </c>
-      <c r="V7">
-        <v>35</v>
+      <c r="V7" t="s">
+        <v>57</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
-        <v>60</v>
-      </c>
-      <c r="Z7">
-        <v>60</v>
-      </c>
-      <c r="AA7">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18</v>
-      </c>
-      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
         <v>60</v>
       </c>
-      <c r="Q8">
-        <v>18</v>
-      </c>
-      <c r="R8">
-        <v>22</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>48</v>
-      </c>
-      <c r="U8">
-        <v>18</v>
-      </c>
-      <c r="V8">
-        <v>35</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>30</v>
-      </c>
-      <c r="Y8">
-        <v>55</v>
-      </c>
-      <c r="Z8">
-        <v>40</v>
-      </c>
-      <c r="AA8">
-        <v>55</v>
+      <c r="X8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Tactic.xlsx
+++ b/Tactic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Formation</t>
   </si>
@@ -40,15 +40,6 @@
     <t>4.4.2 losange</t>
   </si>
   <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>MCY</t>
-  </si>
-  <si>
-    <t>DCX</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>MOG</t>
   </si>
   <si>
-    <t>MOC</t>
-  </si>
-  <si>
     <t>650.300</t>
   </si>
   <si>
@@ -215,6 +203,15 @@
   </si>
   <si>
     <t>60.25</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MO</t>
   </si>
 </sst>
 </file>
@@ -560,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,101 +575,97 @@
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" customWidth="1"/>
-    <col min="23" max="23" width="7" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
       </c>
       <c r="Q1" t="s">
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="V1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -681,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -693,55 +686,52 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
         <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -749,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -787,40 +777,37 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -835,61 +822,58 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
         <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -897,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -935,35 +919,32 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>0</v>
+      <c r="P5" t="s">
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
         <v>46</v>
       </c>
       <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
         <v>50</v>
       </c>
-      <c r="S5" t="s">
-        <v>52</v>
-      </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
         <v>60</v>
       </c>
-      <c r="X5" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -971,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -992,22 +973,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" t="s">
+        <v>38</v>
       </c>
       <c r="P6" t="s">
         <v>42</v>
@@ -1016,16 +997,16 @@
         <v>46</v>
       </c>
       <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
         <v>57</v>
@@ -1033,16 +1014,13 @@
       <c r="W6" t="s">
         <v>61</v>
       </c>
-      <c r="X6" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1066,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1074,44 +1052,41 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1119,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1154,35 +1129,32 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="O8" t="s">
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
         <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
         <v>60</v>
-      </c>
-      <c r="X8" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Tactic.xlsx
+++ b/Tactic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Formation</t>
   </si>
@@ -40,85 +40,178 @@
     <t>4.4.2 losange</t>
   </si>
   <si>
-    <t>AT X</t>
-  </si>
-  <si>
-    <t>AG Y</t>
-  </si>
-  <si>
-    <t>AD X</t>
-  </si>
-  <si>
-    <t>AD Y</t>
-  </si>
-  <si>
-    <t>MDF X</t>
-  </si>
-  <si>
-    <t>MDF Y</t>
-  </si>
-  <si>
-    <t>MC X</t>
-  </si>
-  <si>
-    <t>MC Y</t>
-  </si>
-  <si>
-    <t>MO X</t>
-  </si>
-  <si>
-    <t>MO Y</t>
-  </si>
-  <si>
-    <t>LG X</t>
-  </si>
-  <si>
-    <t>LG Y</t>
-  </si>
-  <si>
-    <t>LD X</t>
-  </si>
-  <si>
-    <t>LD Y</t>
-  </si>
-  <si>
-    <t>DCG X</t>
-  </si>
-  <si>
-    <t>DCG Y</t>
-  </si>
-  <si>
-    <t>DCD X</t>
-  </si>
-  <si>
-    <t>DCD Y</t>
-  </si>
-  <si>
-    <t>GB X</t>
-  </si>
-  <si>
-    <t>GB Y</t>
-  </si>
-  <si>
-    <t>MLG X</t>
-  </si>
-  <si>
-    <t>MLG Y</t>
-  </si>
-  <si>
-    <t>MLD X</t>
-  </si>
-  <si>
-    <t>MLD Y</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>ATY</t>
-  </si>
-  <si>
-    <t>AGX</t>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>800.300</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>850.200</t>
+  </si>
+  <si>
+    <t>ATD</t>
+  </si>
+  <si>
+    <t>850.400</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>750.100</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>750.500</t>
+  </si>
+  <si>
+    <t>MDFG</t>
+  </si>
+  <si>
+    <t>500.200</t>
+  </si>
+  <si>
+    <t>350.225</t>
+  </si>
+  <si>
+    <t>MDFD</t>
+  </si>
+  <si>
+    <t>500.400</t>
+  </si>
+  <si>
+    <t>350.375</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>350.300</t>
+  </si>
+  <si>
+    <t>400.300</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>35.55</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>600.400</t>
+  </si>
+  <si>
+    <t>650.450</t>
+  </si>
+  <si>
+    <t>600.450</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>600.200</t>
+  </si>
+  <si>
+    <t>650.150</t>
+  </si>
+  <si>
+    <t>600.150</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>650.300</t>
+  </si>
+  <si>
+    <t>700.300</t>
+  </si>
+  <si>
+    <t>DLG</t>
+  </si>
+  <si>
+    <t>200.100</t>
+  </si>
+  <si>
+    <t>300.100</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>DLD</t>
+  </si>
+  <si>
+    <t>200.500</t>
+  </si>
+  <si>
+    <t>300.500</t>
+  </si>
+  <si>
+    <t>DCG</t>
+  </si>
+  <si>
+    <t>200.200</t>
+  </si>
+  <si>
+    <t>DCD</t>
+  </si>
+  <si>
+    <t>200.400</t>
+  </si>
+  <si>
+    <t>200.300</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>30.300</t>
+  </si>
+  <si>
+    <t>MLG</t>
+  </si>
+  <si>
+    <t>550.100</t>
+  </si>
+  <si>
+    <t>550.150</t>
+  </si>
+  <si>
+    <t>500.100</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>550.500</t>
+  </si>
+  <si>
+    <t>550.450</t>
+  </si>
+  <si>
+    <t>500.500</t>
+  </si>
+  <si>
+    <t>60.25</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MO</t>
   </si>
 </sst>
 </file>
@@ -464,42 +557,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,504 +597,564 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="V1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35</v>
-      </c>
-      <c r="I2">
-        <v>33</v>
-      </c>
-      <c r="J2">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
         <v>55</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>18</v>
-      </c>
-      <c r="P2">
-        <v>60</v>
-      </c>
-      <c r="Q2">
-        <v>18</v>
-      </c>
-      <c r="R2">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>48</v>
-      </c>
-      <c r="U2">
-        <v>18</v>
-      </c>
-      <c r="V2">
-        <v>35</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>57</v>
-      </c>
-      <c r="Z2">
-        <v>38</v>
-      </c>
-      <c r="AA2">
-        <v>57</v>
+      <c r="W2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>33</v>
-      </c>
-      <c r="J3">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>22</v>
-      </c>
-      <c r="S3">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>48</v>
-      </c>
-      <c r="U3">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
       </c>
       <c r="V3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>85</v>
-      </c>
-      <c r="F4">
-        <v>65</v>
-      </c>
-      <c r="G4">
-        <v>85</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>33</v>
-      </c>
-      <c r="J4">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>55</v>
-      </c>
-      <c r="L4">
-        <v>35</v>
-      </c>
-      <c r="M4">
-        <v>84</v>
-      </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>18</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4">
-        <v>18</v>
-      </c>
-      <c r="R4">
-        <v>22</v>
-      </c>
-      <c r="S4">
-        <v>18</v>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
       </c>
       <c r="T4">
-        <v>48</v>
-      </c>
-      <c r="U4">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
       </c>
       <c r="V4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>55</v>
-      </c>
-      <c r="R5">
-        <v>22</v>
-      </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="U5">
-        <v>18</v>
-      </c>
-      <c r="V5">
-        <v>35</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>57</v>
-      </c>
-      <c r="Z5">
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
         <v>60</v>
       </c>
-      <c r="AA5">
-        <v>57</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>33</v>
-      </c>
-      <c r="J6">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>55</v>
-      </c>
-      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="S6">
-        <v>18</v>
-      </c>
-      <c r="T6">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
         <v>48</v>
       </c>
-      <c r="U6">
-        <v>18</v>
-      </c>
-      <c r="V6">
-        <v>35</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>60</v>
-      </c>
-      <c r="Z6">
-        <v>60</v>
-      </c>
-      <c r="AA6">
-        <v>60</v>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-      <c r="K7">
-        <v>55</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
+      <c r="N7" t="s">
+        <v>36</v>
       </c>
       <c r="O7">
-        <v>25</v>
-      </c>
-      <c r="P7">
-        <v>60</v>
-      </c>
-      <c r="Q7">
-        <v>25</v>
-      </c>
-      <c r="R7">
-        <v>22</v>
-      </c>
-      <c r="S7">
-        <v>18</v>
-      </c>
-      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" t="s">
         <v>48</v>
       </c>
-      <c r="U7">
-        <v>18</v>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>53</v>
       </c>
       <c r="V7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
-        <v>60</v>
-      </c>
-      <c r="Z7">
-        <v>60</v>
-      </c>
-      <c r="AA7">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>18</v>
-      </c>
-      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
         <v>60</v>
-      </c>
-      <c r="Q8">
-        <v>18</v>
-      </c>
-      <c r="R8">
-        <v>22</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>48</v>
-      </c>
-      <c r="U8">
-        <v>18</v>
-      </c>
-      <c r="V8">
-        <v>35</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>30</v>
-      </c>
-      <c r="Y8">
-        <v>55</v>
-      </c>
-      <c r="Z8">
-        <v>40</v>
-      </c>
-      <c r="AA8">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
